--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/国外部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/国外部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,934 +538,576 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
       <c r="E2" t="n">
-        <v>-209.94</v>
+        <v>3382.6188999328</v>
       </c>
       <c r="F2" t="n">
-        <v>-1435.66</v>
+        <v>-25773.118257736</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-450.16</v>
+        <v>-4040.016075295</v>
       </c>
       <c r="J2" t="n">
-        <v>41.23</v>
+        <v>637.425911</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>3661.76</v>
+        <v>12529.0409945977</v>
       </c>
       <c r="N2" t="n">
-        <v>70.27</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>-123.33</v>
-      </c>
+        <v>344.793770125224</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-18.5927895525583</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-19.1069493050695</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>3038.13</v>
+        <v>14202.7457423015</v>
       </c>
       <c r="T2" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>390.44621802</v>
+      </c>
+      <c r="U2" t="n">
+        <v>998.135762778388</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>191.84877558</v>
+        <v>2965</v>
       </c>
       <c r="F3" t="n">
-        <v>-2928.43885326</v>
+        <v>-13234</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>549.77667067728</v>
+        <v>-2259</v>
       </c>
       <c r="J3" t="n">
-        <v>23.73992586</v>
+        <v>2219</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>4081.22125629</v>
+        <v>14224</v>
       </c>
       <c r="N3" t="n">
-        <v>186.14973</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>343</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>24</v>
+      </c>
       <c r="Q3" t="n">
-        <v>-342.63667848</v>
+        <v>1245</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>4785.4534956</v>
+        <v>25258</v>
       </c>
       <c r="T3" t="n">
-        <v>95.35381567272</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
+        <v>370</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6172</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
       <c r="E4" t="n">
-        <v>514.21905402</v>
+        <v>3040</v>
       </c>
       <c r="F4" t="n">
-        <v>-3725.62527891</v>
+        <v>-12408</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1376.73979809064</v>
+        <v>-5014</v>
       </c>
       <c r="J4" t="n">
-        <v>61.45184157</v>
+        <v>519</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>3896.54003163</v>
+        <v>15932</v>
       </c>
       <c r="N4" t="n">
-        <v>639.72933</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>1979</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>165</v>
+      </c>
       <c r="Q4" t="n">
-        <v>547.4660248500001</v>
+        <v>-310</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>7184.22394326</v>
+        <v>12539</v>
       </c>
       <c r="T4" t="n">
-        <v>148.077863099364</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
+        <v>235</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-4025</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>60.3431570173824</v>
+      </c>
       <c r="E5" t="n">
-        <v>1895.197495744</v>
+        <v>4886.08736843956</v>
       </c>
       <c r="F5" t="n">
-        <v>-5682.14959158176</v>
+        <v>-11463.137629862</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>2135.12870296658</v>
+        <v>-4788.00228444219</v>
       </c>
       <c r="J5" t="n">
-        <v>128.169062112</v>
+        <v>1154.16402269662</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>4546.982824944</v>
+        <v>15925.842781894</v>
       </c>
       <c r="N5" t="n">
-        <v>904.0914176</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>2057.71311115195</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-5.2459173897</v>
+      </c>
+      <c r="P5" t="n">
+        <v>22.851335</v>
+      </c>
       <c r="Q5" t="n">
-        <v>1138.299033984</v>
+        <v>259.040430029371</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>10846.8650016982</v>
+        <v>28411.0362351538</v>
       </c>
       <c r="T5" t="n">
-        <v>98.99646434765801</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
+        <v>234.92385300603</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8603.318377750769</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>37</v>
+      </c>
       <c r="E6" t="n">
-        <v>2358.570155898</v>
+        <v>2623</v>
       </c>
       <c r="F6" t="n">
-        <v>-13503.8951737877</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>-15624</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-279</v>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-1373.439017159</v>
+        <v>-8544</v>
       </c>
       <c r="J6" t="n">
-        <v>982.576966679</v>
+        <v>2220</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>6481.824423327</v>
+        <v>17626</v>
       </c>
       <c r="N6" t="n">
-        <v>1666.683282</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>3316</v>
+      </c>
+      <c r="O6" t="n">
+        <v>140</v>
+      </c>
+      <c r="P6" t="n">
+        <v>262</v>
+      </c>
       <c r="Q6" t="n">
-        <v>239.528093178</v>
+        <v>2777</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>10509.546064318</v>
+        <v>15592</v>
       </c>
       <c r="T6" t="n">
-        <v>153.80216039499</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-4688</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1551</v>
+        <v>-4531.84417504317</v>
       </c>
       <c r="F7" t="n">
-        <v>-20300</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>-20640.6952625328</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-42.149491</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1027</v>
+        <v>-11741.5030810006</v>
       </c>
       <c r="J7" t="n">
-        <v>839</v>
+        <v>-7055.6023055969</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>6226</v>
+        <v>15168.8111778907</v>
       </c>
       <c r="N7" t="n">
-        <v>3417</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+        <v>1062.61969778273</v>
+      </c>
+      <c r="O7" t="n">
+        <v>104.1647698956</v>
+      </c>
+      <c r="P7" t="n">
+        <v>219.759</v>
+      </c>
       <c r="Q7" t="n">
-        <v>880</v>
+        <v>-896.9183479185371</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>12068</v>
+        <v>-17996.0745770306</v>
       </c>
       <c r="T7" t="n">
-        <v>182</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
+        <v>177.42535362</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-10460.8371756604</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>2230</v>
+        <v>3135.85435684739</v>
       </c>
       <c r="F8" t="n">
-        <v>-25575</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-13021.2089655121</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-205.859433655774</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1159</v>
+        <v>-14792.8527594584</v>
       </c>
       <c r="J8" t="n">
-        <v>2375</v>
+        <v>-936.163080791045</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>9778</v>
+        <v>11328.8078809074</v>
       </c>
       <c r="N8" t="n">
-        <v>886</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+        <v>2630.38183546203</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-81.56991839680001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>153.9774</v>
+      </c>
       <c r="Q8" t="n">
-        <v>1222</v>
+        <v>-2955.49966499831</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>17848</v>
+        <v>1421.06087290907</v>
       </c>
       <c r="T8" t="n">
-        <v>198</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3132.78411602304</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-1242</v>
+        <v>2145</v>
       </c>
       <c r="F9" t="n">
-        <v>-31296</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-11127</v>
+      </c>
+      <c r="G9" t="n">
+        <v>62</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-1814</v>
+        <v>-14982</v>
       </c>
       <c r="J9" t="n">
-        <v>163</v>
+        <v>5226</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>10271</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>11358</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>-116</v>
+      </c>
       <c r="P9" t="n">
-        <v>16</v>
+        <v>548</v>
       </c>
       <c r="Q9" t="n">
-        <v>2016</v>
+        <v>394</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>10456</v>
+        <v>14412</v>
       </c>
       <c r="T9" t="n">
-        <v>247</v>
+        <v>-2</v>
       </c>
       <c r="U9" t="n">
-        <v>276</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>2241</v>
+        <v>4087.42650209512</v>
       </c>
       <c r="F10" t="n">
-        <v>-20911</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-3210.97130662113</v>
+      </c>
+      <c r="G10" t="n">
+        <v>359.857803918981</v>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-2975</v>
+        <v>-10601.2964909353</v>
       </c>
       <c r="J10" t="n">
-        <v>383</v>
+        <v>642.534409654565</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>5341</v>
-      </c>
-      <c r="N10" t="n">
-        <v>193</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+        <v>13465.9291064814</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>-51.97960822818</v>
+      </c>
+      <c r="P10" t="n">
+        <v>794.538853546863</v>
+      </c>
       <c r="Q10" t="n">
-        <v>256</v>
+        <v>1913.11083206168</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>6300</v>
+        <v>21412.868134808</v>
       </c>
       <c r="T10" t="n">
-        <v>243</v>
+        <v>312.3</v>
       </c>
       <c r="U10" t="n">
-        <v>617</v>
+        <v>1360.44336703919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0.26</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>3382.6188999328</v>
+        <v>1738.68114155533</v>
       </c>
       <c r="F11" t="n">
-        <v>-25773.118257736</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>-12253.9784968647</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-290.269471157034</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-4040.016075295</v>
+        <v>-16086.3885620607</v>
       </c>
       <c r="J11" t="n">
-        <v>637.425911</v>
+        <v>3165.87271033046</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>12529.0409945977</v>
-      </c>
-      <c r="N11" t="n">
-        <v>344.793770125224</v>
-      </c>
+        <v>10748.8538581077</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-18.5927895525583</v>
+        <v>293.3066277055</v>
       </c>
       <c r="P11" t="n">
-        <v>-19.1069493050695</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+        <v>450.3615</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-401.801974629599</v>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>14202.7457423015</v>
+        <v>1558.17531049001</v>
       </c>
       <c r="T11" t="n">
-        <v>390.44621802</v>
+        <v>6.3785</v>
       </c>
       <c r="U11" t="n">
-        <v>998.135762778388</v>
+        <v>-4385.84721676028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>118.894973202577</v>
+      </c>
       <c r="E12" t="n">
-        <v>2965</v>
+        <v>7800.89032440157</v>
       </c>
       <c r="F12" t="n">
-        <v>-13234</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>-20168.2661773686</v>
+      </c>
+      <c r="G12" t="n">
+        <v>89.1616065615377</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-2259</v>
+        <v>-12190.2123217008</v>
       </c>
       <c r="J12" t="n">
-        <v>2219</v>
+        <v>6175.05135242116</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>14224</v>
-      </c>
-      <c r="N12" t="n">
-        <v>343</v>
-      </c>
+        <v>14655.7854152705</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-45</v>
+        <v>364.151505208508</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>2475.5328</v>
       </c>
       <c r="Q12" t="n">
-        <v>1245</v>
+        <v>-1669.25163041722</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>25258</v>
+        <v>23716.3059097317</v>
       </c>
       <c r="T12" t="n">
-        <v>370</v>
+        <v>-323.4927</v>
       </c>
       <c r="U12" t="n">
-        <v>6172</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>39</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3040</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-12408</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>-5014</v>
-      </c>
-      <c r="J13" t="n">
-        <v>519</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>15932</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1979</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>165</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-310</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>12539</v>
-      </c>
-      <c r="T13" t="n">
-        <v>235</v>
-      </c>
-      <c r="U13" t="n">
-        <v>-4025</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>60.3431570173824</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4886.08736843956</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-11463.137629862</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>-4788.00228444219</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1154.16402269662</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>15925.842781894</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2057.71311115195</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-5.2459173897</v>
-      </c>
-      <c r="P14" t="n">
-        <v>22.851335</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>259.040430029371</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>28411.0362351538</v>
-      </c>
-      <c r="T14" t="n">
-        <v>234.92385300603</v>
-      </c>
-      <c r="U14" t="n">
-        <v>8603.318377750769</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>37</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2623</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-15624</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-279</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>-8544</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2220</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>17626</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3316</v>
-      </c>
-      <c r="O15" t="n">
-        <v>140</v>
-      </c>
-      <c r="P15" t="n">
-        <v>262</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2777</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>15592</v>
-      </c>
-      <c r="T15" t="n">
-        <v>101</v>
-      </c>
-      <c r="U15" t="n">
-        <v>-4688</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>-4531.84417504317</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-20640.6952625328</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-42.149491</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>-11741.5030810006</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-7055.6023055969</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>15168.8111778907</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1062.61969778273</v>
-      </c>
-      <c r="O16" t="n">
-        <v>104.1647698956</v>
-      </c>
-      <c r="P16" t="n">
-        <v>219.759</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-896.9183479185371</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>-17996.0745770306</v>
-      </c>
-      <c r="T16" t="n">
-        <v>177.42535362</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-10460.8371756604</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>3135.85435684739</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-13021.2089655121</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-205.859433655774</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>-14792.8527594584</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-936.163080791045</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>11328.8078809074</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2630.38183546203</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-81.56991839680001</v>
-      </c>
-      <c r="P17" t="n">
-        <v>153.9774</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-2955.49966499831</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1421.06087290907</v>
-      </c>
-      <c r="T17" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3132.78411602304</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>2145</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-11127</v>
-      </c>
-      <c r="G18" t="n">
-        <v>62</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>-14982</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5226</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>11358</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>-116</v>
-      </c>
-      <c r="P18" t="n">
-        <v>548</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>394</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>14412</v>
-      </c>
-      <c r="T18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4127</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>4087.42650209512</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-3210.97130662113</v>
-      </c>
-      <c r="G19" t="n">
-        <v>359.857803918981</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>-10601.2964909353</v>
-      </c>
-      <c r="J19" t="n">
-        <v>642.534409654565</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>13465.9291064814</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-51.97960822818</v>
-      </c>
-      <c r="P19" t="n">
-        <v>794.538853546863</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1913.11083206168</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>21412.868134808</v>
-      </c>
-      <c r="T19" t="n">
-        <v>312.3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1360.44336703919</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>1738.68114155533</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-12253.9784968647</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-290.269471157034</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>-16086.3885620607</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3165.87271033046</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>10748.8538581077</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>293.3066277055</v>
-      </c>
-      <c r="P20" t="n">
-        <v>450.3615</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-401.801974629599</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1558.17531049001</v>
-      </c>
-      <c r="T20" t="n">
-        <v>6.3785</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-4385.84721676028</v>
+        <v>-4096.79673786863</v>
       </c>
     </row>
   </sheetData>
